--- a/QUESTÕES/DIR ADMINISTRATIVO 01.xlsx
+++ b/QUESTÕES/DIR ADMINISTRATIVO 01.xlsx
@@ -882,33 +882,20 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -937,7 +924,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -964,10 +951,6 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1024,10 +1007,6 @@
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1107,16 +1086,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F241"/>
+  <dimension ref="A1:F174"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A172" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A173" activeCellId="0" sqref="A173"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="16.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="48.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="19.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="4.02"/>
@@ -1145,126 +1123,126 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="113.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="201" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="57.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="102.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="213.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="79.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="57.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="57.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1276,12 +1254,12 @@
       <c r="E9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="68.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1293,12 +1271,12 @@
       <c r="E10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="181.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1310,29 +1288,29 @@
       <c r="E11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="676.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>30</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="57.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1349,13 +1327,13 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="158.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="14" t="s">
         <v>34</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -1366,13 +1344,13 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="113.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="14" t="s">
         <v>36</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -1383,13 +1361,13 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="79.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -1400,13 +1378,13 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="125" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="14" t="s">
         <v>40</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -1417,13 +1395,13 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>42</v>
       </c>
       <c r="E18" s="3" t="s">
@@ -1434,92 +1412,92 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="147.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="14" t="s">
         <v>44</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="11" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="91.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="14" t="s">
         <v>46</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="102.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="14" t="s">
         <v>48</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="11" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="14" t="s">
         <v>50</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="11" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="192.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="14" t="s">
         <v>52</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="11" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="102.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1531,12 +1509,12 @@
       <c r="E24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F24" s="15" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="91.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1548,182 +1526,182 @@
       <c r="E25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="11" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="91.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="14" t="s">
         <v>57</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="11" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="91.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="14" t="s">
         <v>58</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="11" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="91.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="14" t="s">
         <v>59</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F28" s="11" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="57.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="14" t="s">
         <v>60</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F29" s="11" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="57.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="14" t="s">
         <v>62</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F30" s="11" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="79.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="14" t="s">
         <v>64</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="F31" s="11" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="102.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="14" t="s">
         <v>66</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="F32" s="11" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="57.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="14" t="s">
         <v>68</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F33" s="12" t="s">
+      <c r="F33" s="11" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="203.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="14" t="s">
         <v>70</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F34" s="12" t="s">
+      <c r="F34" s="11" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="203.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="14" t="s">
         <v>72</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F35" s="12" t="s">
+      <c r="F35" s="11" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="203.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -1735,12 +1713,12 @@
       <c r="E36" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F36" s="12" t="s">
+      <c r="F36" s="11" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="203.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -1752,12 +1730,12 @@
       <c r="E37" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="12" t="s">
+      <c r="F37" s="11" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="203.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -1769,12 +1747,12 @@
       <c r="E38" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F38" s="12" t="s">
+      <c r="F38" s="11" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="147.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -1786,12 +1764,12 @@
       <c r="E39" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F39" s="12" t="s">
+      <c r="F39" s="11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="147.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -1803,1032 +1781,1032 @@
       <c r="E40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F40" s="12" t="s">
+      <c r="F40" s="11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="147.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="14" t="s">
         <v>79</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F41" s="12" t="s">
+      <c r="F41" s="11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="147.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="14" t="s">
         <v>80</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F42" s="12" t="s">
+      <c r="F42" s="11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="147.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="14" t="s">
         <v>81</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F43" s="12" t="s">
+      <c r="F43" s="11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="203.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="14" t="s">
         <v>82</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F44" s="12" t="s">
+      <c r="F44" s="11" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="203.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C45" s="14" t="s">
         <v>84</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F45" s="12" t="s">
+      <c r="F45" s="11" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="203.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C46" s="11" t="s">
         <v>85</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F46" s="12" t="s">
+      <c r="F46" s="11" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="203.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="11" t="s">
         <v>86</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F47" s="12" t="s">
+      <c r="F47" s="11" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="215.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C48" s="14" t="s">
         <v>87</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F48" s="16" t="s">
+      <c r="F48" s="15" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="66.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C49" s="14" t="s">
         <v>88</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F49" s="16" t="s">
+      <c r="F49" s="15" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="66.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C50" s="14" t="s">
         <v>90</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F50" s="16" t="s">
+      <c r="F50" s="15" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="66.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C51" s="14" t="s">
         <v>91</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F51" s="16" t="s">
+      <c r="F51" s="15" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="66.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C52" s="14" t="s">
         <v>92</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F52" s="16" t="s">
+      <c r="F52" s="15" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="55.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="C53" s="14" t="s">
         <v>93</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F53" s="12" t="s">
+      <c r="F53" s="11" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="125" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="C54" s="14" t="s">
         <v>95</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F54" s="12" t="s">
+      <c r="F54" s="11" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="125" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C55" s="14" t="s">
         <v>97</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F55" s="12" t="s">
+      <c r="F55" s="11" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="66.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C56" s="14" t="s">
         <v>99</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F56" s="12" t="s">
+      <c r="F56" s="11" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="248.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C57" s="14" t="s">
         <v>101</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F57" s="12" t="s">
+      <c r="F57" s="11" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="248.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C58" s="11" t="s">
         <v>103</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F58" s="12" t="s">
+      <c r="F58" s="11" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="248.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C59" s="10" t="s">
         <v>104</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F59" s="12" t="s">
+      <c r="F59" s="11" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="248.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="16" t="s">
         <v>105</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F60" s="12" t="s">
+      <c r="F60" s="11" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="248.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C61" s="11" t="s">
         <v>106</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F61" s="12" t="s">
+      <c r="F61" s="11" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="181.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="7" t="s">
+      <c r="A62" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C62" s="12" t="s">
+      <c r="C62" s="11" t="s">
         <v>107</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F62" s="12" t="s">
+      <c r="F62" s="11" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="181.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="7" t="s">
+      <c r="A63" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C63" s="11" t="s">
         <v>109</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F63" s="12" t="s">
+      <c r="F63" s="11" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="181.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="7" t="s">
+      <c r="A64" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="C64" s="11" t="s">
         <v>110</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F64" s="12" t="s">
+      <c r="F64" s="11" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="181.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C65" s="10" t="s">
         <v>111</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F65" s="12" t="s">
+      <c r="F65" s="11" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="181.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="7" t="s">
+      <c r="A66" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C66" s="18" t="s">
+      <c r="C66" s="17" t="s">
         <v>112</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F66" s="12" t="s">
+      <c r="F66" s="11" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="102.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="7" t="s">
+      <c r="A67" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C67" s="10" t="s">
         <v>113</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F67" s="12" t="s">
+      <c r="F67" s="11" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="271.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="7" t="s">
+      <c r="A68" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C68" s="12" t="s">
+      <c r="C68" s="11" t="s">
         <v>115</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F68" s="12" t="s">
+      <c r="F68" s="11" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="181.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="7" t="s">
+      <c r="A69" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="C69" s="11" t="s">
         <v>117</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F69" s="12" t="s">
+      <c r="F69" s="11" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="68.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="7" t="s">
+      <c r="A70" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C70" s="12" t="s">
+      <c r="C70" s="11" t="s">
         <v>119</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F70" s="12" t="s">
+      <c r="F70" s="11" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="125" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="7" t="s">
+      <c r="A71" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C71" s="11" t="s">
         <v>121</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F71" s="12" t="s">
+      <c r="F71" s="11" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="7" t="s">
+      <c r="A72" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C72" s="19" t="s">
+      <c r="C72" s="18" t="s">
         <v>123</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F72" s="20" t="s">
+      <c r="F72" s="19" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="7" t="s">
+      <c r="A73" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C73" s="19" t="s">
+      <c r="C73" s="18" t="s">
         <v>125</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F73" s="20" t="s">
+      <c r="F73" s="19" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="7" t="s">
+      <c r="A74" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C74" s="19" t="s">
+      <c r="C74" s="18" t="s">
         <v>126</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F74" s="20" t="s">
+      <c r="F74" s="19" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="7" t="s">
+      <c r="A75" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C75" s="19" t="s">
+      <c r="C75" s="18" t="s">
         <v>127</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F75" s="20" t="s">
+      <c r="F75" s="19" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="7" t="s">
+      <c r="A76" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C76" s="19" t="s">
+      <c r="C76" s="18" t="s">
         <v>128</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F76" s="20" t="s">
+      <c r="F76" s="19" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="147.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="7" t="s">
+      <c r="A77" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C77" s="12" t="s">
+      <c r="C77" s="11" t="s">
         <v>129</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F77" s="12" t="s">
+      <c r="F77" s="11" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="79.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="7" t="s">
+      <c r="A78" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C78" s="12" t="s">
+      <c r="C78" s="11" t="s">
         <v>131</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F78" s="12" t="s">
+      <c r="F78" s="11" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="57.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="7" t="s">
+      <c r="A79" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C79" s="12" t="s">
+      <c r="C79" s="11" t="s">
         <v>133</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F79" s="12" t="s">
+      <c r="F79" s="11" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="113.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="7" t="s">
+      <c r="A80" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C80" s="12" t="s">
+      <c r="C80" s="11" t="s">
         <v>135</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F80" s="12" t="s">
+      <c r="F80" s="11" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="79.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="7" t="s">
+      <c r="A81" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C81" s="12" t="s">
+      <c r="C81" s="11" t="s">
         <v>129</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F81" s="12" t="s">
+      <c r="F81" s="11" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="113.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="7" t="s">
+      <c r="A82" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C82" s="12" t="s">
+      <c r="C82" s="11" t="s">
         <v>138</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F82" s="12" t="s">
+      <c r="F82" s="11" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="361.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="7" t="s">
+      <c r="A83" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C83" s="19" t="s">
+      <c r="C83" s="18" t="s">
         <v>140</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F83" s="16" t="s">
+      <c r="F83" s="15" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="57.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="7" t="s">
+      <c r="A84" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C84" s="19" t="s">
+      <c r="C84" s="18" t="s">
         <v>142</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F84" s="16" t="s">
+      <c r="F84" s="15" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="57.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="7" t="s">
+      <c r="A85" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C85" s="19" t="s">
+      <c r="C85" s="18" t="s">
         <v>144</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F85" s="16" t="s">
+      <c r="F85" s="15" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="55.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="7" t="s">
+      <c r="A86" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C86" s="19" t="s">
+      <c r="C86" s="18" t="s">
         <v>146</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F86" s="16" t="s">
+      <c r="F86" s="15" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="125" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="7" t="s">
+      <c r="A87" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C87" s="19" t="s">
+      <c r="C87" s="18" t="s">
         <v>148</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F87" s="16" t="s">
+      <c r="F87" s="15" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="76" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="7" t="s">
+      <c r="A88" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C88" s="19" t="s">
+      <c r="C88" s="18" t="s">
         <v>150</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F88" s="21" t="s">
+      <c r="F88" s="20" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="125" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="7" t="s">
+      <c r="A89" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C89" s="19" t="s">
+      <c r="C89" s="18" t="s">
         <v>152</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F89" s="16" t="s">
+      <c r="F89" s="15" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="113.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="7" t="s">
+      <c r="A90" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C90" s="19" t="s">
+      <c r="C90" s="18" t="s">
         <v>154</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F90" s="16" t="s">
+      <c r="F90" s="15" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="102.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="7" t="s">
+      <c r="A91" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C91" s="19" t="s">
+      <c r="C91" s="18" t="s">
         <v>156</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F91" s="16" t="s">
+      <c r="F91" s="15" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="68.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="7" t="s">
+      <c r="A92" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C92" s="19" t="s">
+      <c r="C92" s="18" t="s">
         <v>158</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F92" s="16" t="s">
+      <c r="F92" s="15" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="125" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="7" t="s">
+      <c r="A93" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C93" s="19" t="s">
+      <c r="C93" s="18" t="s">
         <v>160</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F93" s="12" t="s">
+      <c r="F93" s="11" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="135.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="7" t="s">
+      <c r="A94" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C94" s="15" t="s">
+      <c r="C94" s="14" t="s">
         <v>162</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F94" s="12" t="s">
+      <c r="F94" s="11" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="55.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="7" t="s">
+      <c r="A95" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C95" s="15" t="s">
+      <c r="C95" s="14" t="s">
         <v>164</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F95" s="12" t="s">
+      <c r="F95" s="11" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="68.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="7" t="s">
+      <c r="A96" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C96" s="15" t="s">
+      <c r="C96" s="14" t="s">
         <v>166</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F96" s="10" t="s">
+      <c r="F96" s="9" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="68.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="7" t="s">
+      <c r="A97" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C97" s="15" t="s">
+      <c r="C97" s="14" t="s">
         <v>167</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F97" s="10" t="s">
+      <c r="F97" s="9" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="204.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="7" t="s">
+      <c r="A98" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C98" s="15" t="s">
+      <c r="C98" s="14" t="s">
         <v>169</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F98" s="10" t="s">
+      <c r="F98" s="9" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="448.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="7" t="s">
+      <c r="A99" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C99" s="15" t="s">
+      <c r="C99" s="14" t="s">
         <v>171</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F99" s="10" t="s">
+      <c r="F99" s="9" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="448.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="7" t="s">
+      <c r="A100" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C100" s="15" t="s">
+      <c r="C100" s="14" t="s">
         <v>173</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F100" s="10" t="s">
+      <c r="F100" s="9" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="307.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="7" t="s">
+      <c r="A101" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B101" s="1" t="s">
@@ -2845,7 +2823,7 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="307.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="7" t="s">
+      <c r="A102" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B102" s="1" t="s">
@@ -2862,7 +2840,7 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="307.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="7" t="s">
+      <c r="A103" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B103" s="1" t="s">
@@ -2879,7 +2857,7 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="176" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="7" t="s">
+      <c r="A104" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B104" s="1" t="s">
@@ -2896,7 +2874,7 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="186.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="7" t="s">
+      <c r="A105" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B105" s="1" t="s">
@@ -2913,7 +2891,7 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="307.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="7" t="s">
+      <c r="A106" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B106" s="1" t="s">
@@ -2930,7 +2908,7 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="307.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="7" t="s">
+      <c r="A107" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -2947,7 +2925,7 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="307.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="7" t="s">
+      <c r="A108" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B108" s="1" t="s">
@@ -2964,7 +2942,7 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="307.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="7" t="s">
+      <c r="A109" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B109" s="1" t="s">
@@ -2981,7 +2959,7 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="307.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="7" t="s">
+      <c r="A110" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B110" s="1" t="s">
@@ -2998,7 +2976,7 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="7" t="s">
+      <c r="A111" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B111" s="1" t="s">
@@ -3015,7 +2993,7 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="34.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="7" t="s">
+      <c r="A112" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B112" s="1" t="s">
@@ -3032,7 +3010,7 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="154.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="7" t="s">
+      <c r="A113" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B113" s="1" t="s">
@@ -3049,7 +3027,7 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="143.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="7" t="s">
+      <c r="A114" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B114" s="1" t="s">
@@ -3066,7 +3044,7 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="143.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="7" t="s">
+      <c r="A115" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B115" s="1" t="s">
@@ -3083,7 +3061,7 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="143.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="7" t="s">
+      <c r="A116" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B116" s="1" t="s">
@@ -3100,7 +3078,7 @@
       </c>
     </row>
     <row r="117" customFormat="false" ht="143.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="7" t="s">
+      <c r="A117" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B117" s="1" t="s">
@@ -3117,7 +3095,7 @@
       </c>
     </row>
     <row r="118" customFormat="false" ht="143.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="7" t="s">
+      <c r="A118" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B118" s="1" t="s">
@@ -3134,7 +3112,7 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="55.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="7" t="s">
+      <c r="A119" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B119" s="1" t="s">
@@ -3151,7 +3129,7 @@
       </c>
     </row>
     <row r="120" customFormat="false" ht="68.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="7" t="s">
+      <c r="A120" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B120" s="1" t="s">
@@ -3168,7 +3146,7 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="7" t="s">
+      <c r="A121" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B121" s="1" t="s">
@@ -3185,7 +3163,7 @@
       </c>
     </row>
     <row r="122" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="7" t="s">
+      <c r="A122" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B122" s="1" t="s">
@@ -3202,7 +3180,7 @@
       </c>
     </row>
     <row r="123" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="7" t="s">
+      <c r="A123" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B123" s="1" t="s">
@@ -3219,7 +3197,7 @@
       </c>
     </row>
     <row r="124" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="7" t="s">
+      <c r="A124" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B124" s="1" t="s">
@@ -3236,7 +3214,7 @@
       </c>
     </row>
     <row r="125" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="7" t="s">
+      <c r="A125" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B125" s="1" t="s">
@@ -3253,7 +3231,7 @@
       </c>
     </row>
     <row r="126" customFormat="false" ht="143.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="7" t="s">
+      <c r="A126" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B126" s="1" t="s">
@@ -3270,7 +3248,7 @@
       </c>
     </row>
     <row r="127" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="7" t="s">
+      <c r="A127" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B127" s="1" t="s">
@@ -3287,7 +3265,7 @@
       </c>
     </row>
     <row r="128" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="7" t="s">
+      <c r="A128" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B128" s="1" t="s">
@@ -3304,7 +3282,7 @@
       </c>
     </row>
     <row r="129" customFormat="false" ht="132.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="7" t="s">
+      <c r="A129" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B129" s="1" t="s">
@@ -3321,7 +3299,7 @@
       </c>
     </row>
     <row r="130" customFormat="false" ht="88.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="7" t="s">
+      <c r="A130" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B130" s="1" t="s">
@@ -3338,7 +3316,7 @@
       </c>
     </row>
     <row r="131" customFormat="false" ht="154.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="7" t="s">
+      <c r="A131" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B131" s="1" t="s">
@@ -3355,7 +3333,7 @@
       </c>
     </row>
     <row r="132" customFormat="false" ht="55.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="7" t="s">
+      <c r="A132" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B132" s="1" t="s">
@@ -3372,7 +3350,7 @@
       </c>
     </row>
     <row r="133" customFormat="false" ht="99.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="7" t="s">
+      <c r="A133" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B133" s="1" t="s">
@@ -3389,7 +3367,7 @@
       </c>
     </row>
     <row r="134" customFormat="false" ht="165.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="7" t="s">
+      <c r="A134" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B134" s="1" t="s">
@@ -3406,7 +3384,7 @@
       </c>
     </row>
     <row r="135" customFormat="false" ht="102.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="7" t="s">
+      <c r="A135" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B135" s="1" t="s">
@@ -3423,7 +3401,7 @@
       </c>
     </row>
     <row r="136" customFormat="false" ht="132.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="7" t="s">
+      <c r="A136" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B136" s="1" t="s">
@@ -3440,7 +3418,7 @@
       </c>
     </row>
     <row r="137" customFormat="false" ht="132.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="7" t="s">
+      <c r="A137" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B137" s="1" t="s">
@@ -3457,7 +3435,7 @@
       </c>
     </row>
     <row r="138" customFormat="false" ht="66.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="7" t="s">
+      <c r="A138" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B138" s="1" t="s">
@@ -3474,7 +3452,7 @@
       </c>
     </row>
     <row r="139" customFormat="false" ht="55.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="7" t="s">
+      <c r="A139" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B139" s="1" t="s">
@@ -3491,7 +3469,7 @@
       </c>
     </row>
     <row r="140" customFormat="false" ht="208.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="7" t="s">
+      <c r="A140" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B140" s="1" t="s">
@@ -3508,7 +3486,7 @@
       </c>
     </row>
     <row r="141" customFormat="false" ht="99.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="7" t="s">
+      <c r="A141" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B141" s="1" t="s">
@@ -3525,7 +3503,7 @@
       </c>
     </row>
     <row r="142" customFormat="false" ht="362.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="7" t="s">
+      <c r="A142" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B142" s="1" t="s">
@@ -3542,7 +3520,7 @@
       </c>
     </row>
     <row r="143" customFormat="false" ht="504.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="7" t="s">
+      <c r="A143" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B143" s="1" t="s">
@@ -3559,7 +3537,7 @@
       </c>
     </row>
     <row r="144" customFormat="false" ht="99.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="7" t="s">
+      <c r="A144" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B144" s="1" t="s">
@@ -3576,7 +3554,7 @@
       </c>
     </row>
     <row r="145" customFormat="false" ht="55.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="7" t="s">
+      <c r="A145" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B145" s="1" t="s">
@@ -3593,7 +3571,7 @@
       </c>
     </row>
     <row r="146" customFormat="false" ht="176" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="7" t="s">
+      <c r="A146" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B146" s="1" t="s">
@@ -3610,7 +3588,7 @@
       </c>
     </row>
     <row r="147" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="7" t="s">
+      <c r="A147" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B147" s="1" t="s">
@@ -3627,7 +3605,7 @@
       </c>
     </row>
     <row r="148" customFormat="false" ht="110.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="7" t="s">
+      <c r="A148" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B148" s="1" t="s">
@@ -3644,7 +3622,7 @@
       </c>
     </row>
     <row r="149" customFormat="false" ht="186.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="7" t="s">
+      <c r="A149" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B149" s="1" t="s">
@@ -3661,7 +3639,7 @@
       </c>
     </row>
     <row r="150" customFormat="false" ht="79.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="7" t="s">
+      <c r="A150" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B150" s="1" t="s">
@@ -3678,7 +3656,7 @@
       </c>
     </row>
     <row r="151" customFormat="false" ht="169.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="7" t="s">
+      <c r="A151" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B151" s="1" t="s">
@@ -3695,7 +3673,7 @@
       </c>
     </row>
     <row r="152" customFormat="false" ht="242.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="7" t="s">
+      <c r="A152" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B152" s="1" t="s">
@@ -3712,7 +3690,7 @@
       </c>
     </row>
     <row r="153" customFormat="false" ht="99.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="7" t="s">
+      <c r="A153" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B153" s="1" t="s">
@@ -3729,7 +3707,7 @@
       </c>
     </row>
     <row r="154" customFormat="false" ht="132.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="7" t="s">
+      <c r="A154" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B154" s="1" t="s">
@@ -3746,7 +3724,7 @@
       </c>
     </row>
     <row r="155" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="7" t="s">
+      <c r="A155" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B155" s="1" t="s">
@@ -3763,7 +3741,7 @@
       </c>
     </row>
     <row r="156" customFormat="false" ht="55.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="7" t="s">
+      <c r="A156" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B156" s="1" t="s">
@@ -3780,7 +3758,7 @@
       </c>
     </row>
     <row r="157" customFormat="false" ht="110.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="7" t="s">
+      <c r="A157" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B157" s="1" t="s">
@@ -3797,7 +3775,7 @@
       </c>
     </row>
     <row r="158" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="7" t="s">
+      <c r="A158" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B158" s="1" t="s">
@@ -3814,7 +3792,7 @@
       </c>
     </row>
     <row r="159" customFormat="false" ht="318.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="7" t="s">
+      <c r="A159" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B159" s="1" t="s">
@@ -3831,7 +3809,7 @@
       </c>
     </row>
     <row r="160" customFormat="false" ht="329.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="7" t="s">
+      <c r="A160" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B160" s="1" t="s">
@@ -3848,7 +3826,7 @@
       </c>
     </row>
     <row r="161" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="7" t="s">
+      <c r="A161" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B161" s="1" t="s">
@@ -3865,7 +3843,7 @@
       </c>
     </row>
     <row r="162" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="7" t="s">
+      <c r="A162" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B162" s="1" t="s">
@@ -3882,7 +3860,7 @@
       </c>
     </row>
     <row r="163" customFormat="false" ht="57.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="7" t="s">
+      <c r="A163" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B163" s="1" t="s">
@@ -3899,7 +3877,7 @@
       </c>
     </row>
     <row r="164" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="7" t="s">
+      <c r="A164" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B164" s="1" t="s">
@@ -3916,7 +3894,7 @@
       </c>
     </row>
     <row r="165" customFormat="false" ht="68.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="7" t="s">
+      <c r="A165" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B165" s="1" t="s">
@@ -3933,7 +3911,7 @@
       </c>
     </row>
     <row r="166" customFormat="false" ht="110.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="7" t="s">
+      <c r="A166" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B166" s="1" t="s">
@@ -3950,7 +3928,7 @@
       </c>
     </row>
     <row r="167" customFormat="false" ht="99.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="7" t="s">
+      <c r="A167" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B167" s="1" t="s">
@@ -3967,7 +3945,7 @@
       </c>
     </row>
     <row r="168" customFormat="false" ht="88.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="7" t="s">
+      <c r="A168" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B168" s="1" t="s">
@@ -3984,7 +3962,7 @@
       </c>
     </row>
     <row r="169" customFormat="false" ht="66.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="7" t="s">
+      <c r="A169" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B169" s="1" t="s">
@@ -4001,7 +3979,7 @@
       </c>
     </row>
     <row r="170" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="7" t="s">
+      <c r="A170" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B170" s="1" t="s">
@@ -4018,7 +3996,7 @@
       </c>
     </row>
     <row r="171" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="7" t="s">
+      <c r="A171" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B171" s="1" t="s">
@@ -4035,7 +4013,7 @@
       </c>
     </row>
     <row r="172" customFormat="false" ht="57.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="7" t="s">
+      <c r="A172" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B172" s="1" t="s">
@@ -4052,7 +4030,7 @@
       </c>
     </row>
     <row r="173" customFormat="false" ht="57.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="7" t="s">
+      <c r="A173" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B173" s="1" t="s">
@@ -4069,7 +4047,7 @@
       </c>
     </row>
     <row r="174" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="7" t="s">
+      <c r="A174" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B174" s="1" t="s">
@@ -4084,207 +4062,6 @@
       <c r="F174" s="4" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="22"/>
-    </row>
-    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="22"/>
-    </row>
-    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="22"/>
-    </row>
-    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="22"/>
-    </row>
-    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="22"/>
-    </row>
-    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="22"/>
-    </row>
-    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="22"/>
-    </row>
-    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="22"/>
-    </row>
-    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="22"/>
-    </row>
-    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="22"/>
-    </row>
-    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="22"/>
-    </row>
-    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="22"/>
-    </row>
-    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="22"/>
-    </row>
-    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="22"/>
-    </row>
-    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="22"/>
-    </row>
-    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="22"/>
-    </row>
-    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="22"/>
-    </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="22"/>
-    </row>
-    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="22"/>
-    </row>
-    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="22"/>
-    </row>
-    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="22"/>
-    </row>
-    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="22"/>
-    </row>
-    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="22"/>
-    </row>
-    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="22"/>
-    </row>
-    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="22"/>
-    </row>
-    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="22"/>
-    </row>
-    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="22"/>
-    </row>
-    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="22"/>
-    </row>
-    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="22"/>
-    </row>
-    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="22"/>
-    </row>
-    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="22"/>
-    </row>
-    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="22"/>
-    </row>
-    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="22"/>
-    </row>
-    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="22"/>
-    </row>
-    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="22"/>
-    </row>
-    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="22"/>
-    </row>
-    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="22"/>
-    </row>
-    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="22"/>
-    </row>
-    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="22"/>
-    </row>
-    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="22"/>
-    </row>
-    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="22"/>
-    </row>
-    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="22"/>
-    </row>
-    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="22"/>
-    </row>
-    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="22"/>
-    </row>
-    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="22"/>
-    </row>
-    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="22"/>
-    </row>
-    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="22"/>
-    </row>
-    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="22"/>
-    </row>
-    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="22"/>
-    </row>
-    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="22"/>
-    </row>
-    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="22"/>
-    </row>
-    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="22"/>
-    </row>
-    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="22"/>
-    </row>
-    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="22"/>
-    </row>
-    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="22"/>
-    </row>
-    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="22"/>
-    </row>
-    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="22"/>
-    </row>
-    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="22"/>
-    </row>
-    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="22"/>
-    </row>
-    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="22"/>
-    </row>
-    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="22"/>
-    </row>
-    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="22"/>
-    </row>
-    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="22"/>
-    </row>
-    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="22"/>
-    </row>
-    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="22"/>
-    </row>
-    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="22"/>
-    </row>
-    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="22"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
